--- a/readoverflow/10000/questions_score.xlsx
+++ b/readoverflow/10000/questions_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\anna\readoverflow\10000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E081473E-D416-4654-8133-7A8CE6E02B39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A986A8-9E28-4903-B7CE-690B107F52B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="1140" windowWidth="36150" windowHeight="18420" activeTab="5" xr2:uid="{63042533-61F6-41D2-9771-9CE54C6CD60A}"/>
+    <workbookView xWindow="12555" yWindow="1140" windowWidth="36150" windowHeight="18420" firstSheet="1" activeTab="6" xr2:uid="{63042533-61F6-41D2-9771-9CE54C6CD60A}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Regression(favorite#)" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Simple Regression(comment#)" sheetId="5" r:id="rId4"/>
     <sheet name="Simple Regression(Days#)" sheetId="6" r:id="rId5"/>
     <sheet name="Multiple Regression" sheetId="7" r:id="rId6"/>
-    <sheet name="Data" sheetId="1" r:id="rId7"/>
+    <sheet name="Quadratic Regression Models" sheetId="8" r:id="rId7"/>
+    <sheet name="Data" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
   <si>
     <t>DAYS</t>
   </si>
@@ -1653,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3399BAEA-A983-42BA-BD30-AD197BB2AE4C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
@@ -1938,11 +1939,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B8E84B-8856-4867-825B-81765E763CF8}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="A1:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.98936011710611205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.97883344132021977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.97866239842179736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21.119901257852497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10210511.744575044</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2552627.936143761</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5722.7365201831126</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>495</v>
+      </c>
+      <c r="C13" s="2">
+        <v>220794.86342501253</v>
+      </c>
+      <c r="D13" s="2">
+        <v>446.05022914143944</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>499</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10431306.608000057</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.8306252818608169</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.6223993913219299</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.4429416881533896</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.2604541841637963E-8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.6429868875540592</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12.018263676167575</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.6354283755211698</v>
+      </c>
+      <c r="I17" s="2">
+        <v>13.025822188200465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.7360564087801831E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0892502238230974E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.2660594263157687</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.0821407213052578E-7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.5959324337356403E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.8761803838247255E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.9194754893993491E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8.5526373281610175E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.31422312063755536</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.37950248627796468</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.82798698822595918</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.40807688022163602</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-0.4314112172851417</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0598574585602525</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-0.66709360377534632</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.2955398450504572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.64066494605156499</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.0377368844259412E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7.0887762527760145</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.6895935442452633E-12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.46309438454534496</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.81823550755778496</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.40696733730824408</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.87436255479488589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7.1632897416618515E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.4827219034300348E-4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>48.311755057308801</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.7008079738244032E-189</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6.8719692879724474E-3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7.4546101953512555E-3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.7798878262331601E-3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7.5466916570905429E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04C605F-1A8E-4D97-9D94-0F4F7D45A867}">
-  <dimension ref="A1:Q501"/>
+  <dimension ref="A1:AB501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +2282,7 @@
     <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3596</v>
       </c>
@@ -2059,7 +2377,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3616</v>
       </c>
@@ -2099,11 +2417,15 @@
       <c r="O3">
         <v>208</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">O3*O3</f>
+        <v>43264</v>
+      </c>
       <c r="Q3">
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2586</v>
       </c>
@@ -2143,11 +2465,15 @@
       <c r="O4">
         <v>196</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>38416</v>
+      </c>
       <c r="Q4">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2925</v>
       </c>
@@ -2187,11 +2513,15 @@
       <c r="O5">
         <v>71</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>5041</v>
+      </c>
       <c r="Q5">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2727</v>
       </c>
@@ -2231,11 +2561,15 @@
       <c r="O6">
         <v>58</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>3364</v>
+      </c>
       <c r="Q6">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1217</v>
       </c>
@@ -2275,11 +2609,15 @@
       <c r="O7">
         <v>164</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>26896</v>
+      </c>
       <c r="Q7">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2651</v>
       </c>
@@ -2319,11 +2657,15 @@
       <c r="O8">
         <v>75</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
       <c r="Q8">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2960</v>
       </c>
@@ -2363,11 +2705,17 @@
       <c r="O9">
         <v>33</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
       <c r="Q9">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2256</v>
       </c>
@@ -2407,11 +2755,17 @@
       <c r="O10">
         <v>45</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
       <c r="Q10">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1167</v>
       </c>
@@ -2451,11 +2805,17 @@
       <c r="O11">
         <v>43</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1849</v>
+      </c>
       <c r="Q11">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2234</v>
       </c>
@@ -2495,11 +2855,17 @@
       <c r="O12">
         <v>29</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
       <c r="Q12">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2650</v>
       </c>
@@ -2539,11 +2905,17 @@
       <c r="O13">
         <v>34</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1156</v>
+      </c>
       <c r="Q13">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2550</v>
       </c>
@@ -2583,11 +2955,17 @@
       <c r="O14">
         <v>32</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
       <c r="Q14">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2295</v>
       </c>
@@ -2627,11 +3005,15 @@
       <c r="O15">
         <v>22</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
       <c r="Q15">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1873</v>
       </c>
@@ -2671,11 +3053,15 @@
       <c r="O16">
         <v>31</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
       <c r="Q16">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2866</v>
       </c>
@@ -2715,11 +3101,21 @@
       <c r="O17">
         <v>53</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="Q17">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2472</v>
       </c>
@@ -2759,11 +3155,21 @@
       <c r="O18">
         <v>31</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
       <c r="Q18">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2227</v>
       </c>
@@ -2803,11 +3209,21 @@
       <c r="O19">
         <v>16</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
       <c r="Q19">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2073</v>
       </c>
@@ -2847,11 +3263,21 @@
       <c r="O20">
         <v>35</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
       <c r="Q20">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>117</v>
       </c>
@@ -2891,11 +3317,15 @@
       <c r="O21">
         <v>19</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
       <c r="Q21">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2611</v>
       </c>
@@ -2935,11 +3365,24 @@
       <c r="O22">
         <v>20</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
       <c r="Q22">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>998</v>
       </c>
@@ -2979,11 +3422,24 @@
       <c r="O23">
         <v>30</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
       <c r="Q23">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2184</v>
       </c>
@@ -3023,11 +3479,24 @@
       <c r="O24">
         <v>54</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>2916</v>
+      </c>
       <c r="Q24">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3067,11 +3536,24 @@
       <c r="O25">
         <v>33</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
       <c r="Q25">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1665</v>
       </c>
@@ -3111,11 +3593,24 @@
       <c r="O26">
         <v>8</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="Q26">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2983</v>
       </c>
@@ -3155,11 +3650,24 @@
       <c r="O27">
         <v>34</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1156</v>
+      </c>
       <c r="Q27">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>683</v>
       </c>
@@ -3199,11 +3707,15 @@
       <c r="O28">
         <v>53</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2809</v>
+      </c>
       <c r="Q28">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2215</v>
       </c>
@@ -3243,11 +3755,15 @@
       <c r="O29">
         <v>4</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="Q29">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2698</v>
       </c>
@@ -3287,11 +3803,15 @@
       <c r="O30">
         <v>13</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
       <c r="Q30">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -3331,11 +3851,15 @@
       <c r="O31">
         <v>9</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="Q31">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1765</v>
       </c>
@@ -3374,6 +3898,10 @@
       </c>
       <c r="O32">
         <v>26</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>676</v>
       </c>
       <c r="Q32">
         <v>72</v>
@@ -3419,6 +3947,10 @@
       <c r="O33">
         <v>25</v>
       </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
       <c r="Q33">
         <v>72</v>
       </c>
@@ -3463,6 +3995,10 @@
       <c r="O34">
         <v>10</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="Q34">
         <v>66</v>
       </c>
@@ -3507,6 +4043,10 @@
       <c r="O35">
         <v>16</v>
       </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
       <c r="Q35">
         <v>65</v>
       </c>
@@ -3551,6 +4091,10 @@
       <c r="O36">
         <v>10</v>
       </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="Q36">
         <v>64</v>
       </c>
@@ -3595,6 +4139,10 @@
       <c r="O37">
         <v>30</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
       <c r="Q37">
         <v>62</v>
       </c>
@@ -3639,6 +4187,10 @@
       <c r="O38">
         <v>23</v>
       </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
       <c r="Q38">
         <v>60</v>
       </c>
@@ -3683,6 +4235,10 @@
       <c r="O39">
         <v>18</v>
       </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
       <c r="Q39">
         <v>59</v>
       </c>
@@ -3727,6 +4283,10 @@
       <c r="O40">
         <v>9</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="Q40">
         <v>58</v>
       </c>
@@ -3771,6 +4331,10 @@
       <c r="O41">
         <v>30</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
       <c r="Q41">
         <v>57</v>
       </c>
@@ -3815,6 +4379,10 @@
       <c r="O42">
         <v>32</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
       <c r="Q42">
         <v>56</v>
       </c>
@@ -3859,6 +4427,10 @@
       <c r="O43">
         <v>10</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="Q43">
         <v>56</v>
       </c>
@@ -3903,6 +4475,10 @@
       <c r="O44">
         <v>59</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>3481</v>
+      </c>
       <c r="Q44">
         <v>56</v>
       </c>
@@ -3947,6 +4523,10 @@
       <c r="O45">
         <v>8</v>
       </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="Q45">
         <v>53</v>
       </c>
@@ -3991,6 +4571,10 @@
       <c r="O46">
         <v>22</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
       <c r="Q46">
         <v>52</v>
       </c>
@@ -4035,6 +4619,10 @@
       <c r="O47">
         <v>12</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
       <c r="Q47">
         <v>52</v>
       </c>
@@ -4079,6 +4667,10 @@
       <c r="O48">
         <v>29</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
       <c r="Q48">
         <v>52</v>
       </c>
@@ -4123,6 +4715,10 @@
       <c r="O49">
         <v>8</v>
       </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="Q49">
         <v>48</v>
       </c>
@@ -4166,6 +4762,10 @@
       </c>
       <c r="O50">
         <v>17</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>47</v>
@@ -4211,6 +4811,10 @@
       <c r="O51">
         <v>12</v>
       </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
       <c r="Q51">
         <v>47</v>
       </c>
@@ -4255,6 +4859,10 @@
       <c r="O52">
         <v>4</v>
       </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="Q52">
         <v>46</v>
       </c>
@@ -4299,6 +4907,10 @@
       <c r="O53">
         <v>7</v>
       </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="Q53">
         <v>44</v>
       </c>
@@ -4343,6 +4955,10 @@
       <c r="O54">
         <v>10</v>
       </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="Q54">
         <v>44</v>
       </c>
@@ -4387,6 +5003,10 @@
       <c r="O55">
         <v>9</v>
       </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="Q55">
         <v>43</v>
       </c>
@@ -4431,6 +5051,10 @@
       <c r="O56">
         <v>27</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
       <c r="Q56">
         <v>43</v>
       </c>
@@ -4475,6 +5099,10 @@
       <c r="O57">
         <v>7</v>
       </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="Q57">
         <v>42</v>
       </c>
@@ -4519,6 +5147,10 @@
       <c r="O58">
         <v>32</v>
       </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
       <c r="Q58">
         <v>42</v>
       </c>
@@ -4563,6 +5195,10 @@
       <c r="O59">
         <v>28</v>
       </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
       <c r="Q59">
         <v>41</v>
       </c>
@@ -4607,6 +5243,10 @@
       <c r="O60">
         <v>26</v>
       </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
       <c r="Q60">
         <v>41</v>
       </c>
@@ -4651,6 +5291,10 @@
       <c r="O61">
         <v>2</v>
       </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="Q61">
         <v>40</v>
       </c>
@@ -4695,6 +5339,10 @@
       <c r="O62">
         <v>5</v>
       </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="Q62">
         <v>40</v>
       </c>
@@ -4739,6 +5387,10 @@
       <c r="O63">
         <v>1</v>
       </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q63">
         <v>39</v>
       </c>
@@ -4783,6 +5435,10 @@
       <c r="O64">
         <v>5</v>
       </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="Q64">
         <v>39</v>
       </c>
@@ -4827,6 +5483,10 @@
       <c r="O65">
         <v>7</v>
       </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="Q65">
         <v>39</v>
       </c>
@@ -4871,6 +5531,10 @@
       <c r="O66">
         <v>3</v>
       </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="Q66">
         <v>39</v>
       </c>
@@ -4915,6 +5579,10 @@
       <c r="O67">
         <v>5</v>
       </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="1">O67*O67</f>
+        <v>25</v>
+      </c>
       <c r="Q67">
         <v>37</v>
       </c>
@@ -4959,6 +5627,10 @@
       <c r="O68">
         <v>7</v>
       </c>
+      <c r="P68">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q68">
         <v>36</v>
       </c>
@@ -5003,6 +5675,10 @@
       <c r="O69">
         <v>16</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
       <c r="Q69">
         <v>35</v>
       </c>
@@ -5047,6 +5723,10 @@
       <c r="O70">
         <v>13</v>
       </c>
+      <c r="P70">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
       <c r="Q70">
         <v>35</v>
       </c>
@@ -5090,6 +5770,10 @@
       </c>
       <c r="O71">
         <v>9</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="Q71">
         <v>35</v>
@@ -5135,6 +5819,10 @@
       <c r="O72">
         <v>6</v>
       </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="Q72">
         <v>35</v>
       </c>
@@ -5179,6 +5867,10 @@
       <c r="O73">
         <v>16</v>
       </c>
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
       <c r="Q73">
         <v>35</v>
       </c>
@@ -5223,6 +5915,10 @@
       <c r="O74">
         <v>5</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="Q74">
         <v>34</v>
       </c>
@@ -5267,6 +5963,10 @@
       <c r="O75">
         <v>2</v>
       </c>
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="Q75">
         <v>34</v>
       </c>
@@ -5311,6 +6011,10 @@
       <c r="O76">
         <v>16</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
       <c r="Q76">
         <v>34</v>
       </c>
@@ -5355,6 +6059,10 @@
       <c r="O77">
         <v>7</v>
       </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q77">
         <v>33</v>
       </c>
@@ -5399,6 +6107,10 @@
       <c r="O78">
         <v>25</v>
       </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
       <c r="Q78">
         <v>33</v>
       </c>
@@ -5443,6 +6155,10 @@
       <c r="O79">
         <v>4</v>
       </c>
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="Q79">
         <v>33</v>
       </c>
@@ -5487,6 +6203,10 @@
       <c r="O80">
         <v>12</v>
       </c>
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
       <c r="Q80">
         <v>32</v>
       </c>
@@ -5531,6 +6251,10 @@
       <c r="O81">
         <v>12</v>
       </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
       <c r="Q81">
         <v>32</v>
       </c>
@@ -5575,6 +6299,10 @@
       <c r="O82">
         <v>7</v>
       </c>
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q82">
         <v>32</v>
       </c>
@@ -5619,6 +6347,10 @@
       <c r="O83">
         <v>3</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q83">
         <v>31</v>
       </c>
@@ -5663,6 +6395,10 @@
       <c r="O84">
         <v>5</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="Q84">
         <v>31</v>
       </c>
@@ -5707,6 +6443,10 @@
       <c r="O85">
         <v>28</v>
       </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
       <c r="Q85">
         <v>31</v>
       </c>
@@ -5751,6 +6491,10 @@
       <c r="O86">
         <v>14</v>
       </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
       <c r="Q86">
         <v>30</v>
       </c>
@@ -5795,6 +6539,10 @@
       <c r="O87">
         <v>11</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
       <c r="Q87">
         <v>30</v>
       </c>
@@ -5839,6 +6587,10 @@
       <c r="O88">
         <v>11</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
       <c r="Q88">
         <v>30</v>
       </c>
@@ -5883,6 +6635,10 @@
       <c r="O89">
         <v>5</v>
       </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="Q89">
         <v>29</v>
       </c>
@@ -5927,6 +6683,10 @@
       <c r="O90">
         <v>5</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="Q90">
         <v>29</v>
       </c>
@@ -5971,6 +6731,10 @@
       <c r="O91">
         <v>2</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="Q91">
         <v>29</v>
       </c>
@@ -6015,6 +6779,10 @@
       <c r="O92">
         <v>7</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q92">
         <v>29</v>
       </c>
@@ -6059,6 +6827,10 @@
       <c r="O93">
         <v>13</v>
       </c>
+      <c r="P93">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
       <c r="Q93">
         <v>29</v>
       </c>
@@ -6103,6 +6875,10 @@
       <c r="O94">
         <v>3</v>
       </c>
+      <c r="P94">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q94">
         <v>28</v>
       </c>
@@ -6146,6 +6922,10 @@
       </c>
       <c r="O95">
         <v>5</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="Q95">
         <v>28</v>
@@ -6191,6 +6971,10 @@
       <c r="O96">
         <v>11</v>
       </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
       <c r="Q96">
         <v>28</v>
       </c>
@@ -6234,6 +7018,10 @@
       </c>
       <c r="O97">
         <v>14</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>28</v>
@@ -6279,6 +7067,10 @@
       <c r="O98">
         <v>14</v>
       </c>
+      <c r="P98">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
       <c r="Q98">
         <v>28</v>
       </c>
@@ -6323,6 +7115,10 @@
       <c r="O99">
         <v>7</v>
       </c>
+      <c r="P99">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q99">
         <v>27</v>
       </c>
@@ -6367,6 +7163,10 @@
       <c r="O100">
         <v>7</v>
       </c>
+      <c r="P100">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q100">
         <v>27</v>
       </c>
@@ -6411,6 +7211,10 @@
       <c r="O101">
         <v>13</v>
       </c>
+      <c r="P101">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
       <c r="Q101">
         <v>27</v>
       </c>
@@ -6455,6 +7259,10 @@
       <c r="O102">
         <v>21</v>
       </c>
+      <c r="P102">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
       <c r="Q102">
         <v>27</v>
       </c>
@@ -6499,6 +7307,10 @@
       <c r="O103">
         <v>4</v>
       </c>
+      <c r="P103">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="Q103">
         <v>27</v>
       </c>
@@ -6543,6 +7355,10 @@
       <c r="O104">
         <v>6</v>
       </c>
+      <c r="P104">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="Q104">
         <v>27</v>
       </c>
@@ -6587,6 +7403,10 @@
       <c r="O105">
         <v>3</v>
       </c>
+      <c r="P105">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q105">
         <v>27</v>
       </c>
@@ -6631,6 +7451,10 @@
       <c r="O106">
         <v>2</v>
       </c>
+      <c r="P106">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="Q106">
         <v>27</v>
       </c>
@@ -6675,6 +7499,10 @@
       <c r="O107">
         <v>15</v>
       </c>
+      <c r="P107">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
       <c r="Q107">
         <v>26</v>
       </c>
@@ -6719,6 +7547,10 @@
       <c r="O108">
         <v>7</v>
       </c>
+      <c r="P108">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q108">
         <v>26</v>
       </c>
@@ -6763,6 +7595,10 @@
       <c r="O109">
         <v>6</v>
       </c>
+      <c r="P109">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="Q109">
         <v>26</v>
       </c>
@@ -6807,6 +7643,10 @@
       <c r="O110">
         <v>14</v>
       </c>
+      <c r="P110">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
       <c r="Q110">
         <v>26</v>
       </c>
@@ -6851,6 +7691,10 @@
       <c r="O111">
         <v>6</v>
       </c>
+      <c r="P111">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="Q111">
         <v>25</v>
       </c>
@@ -6895,6 +7739,10 @@
       <c r="O112">
         <v>2</v>
       </c>
+      <c r="P112">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="Q112">
         <v>25</v>
       </c>
@@ -6939,6 +7787,10 @@
       <c r="O113">
         <v>4</v>
       </c>
+      <c r="P113">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="Q113">
         <v>25</v>
       </c>
@@ -6982,6 +7834,10 @@
       </c>
       <c r="O114">
         <v>5</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="Q114">
         <v>25</v>
@@ -7027,6 +7883,10 @@
       <c r="O115">
         <v>6</v>
       </c>
+      <c r="P115">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
       <c r="Q115">
         <v>24</v>
       </c>
@@ -7071,6 +7931,10 @@
       <c r="O116">
         <v>7</v>
       </c>
+      <c r="P116">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q116">
         <v>24</v>
       </c>
@@ -7115,6 +7979,10 @@
       <c r="O117">
         <v>3</v>
       </c>
+      <c r="P117">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q117">
         <v>24</v>
       </c>
@@ -7158,6 +8026,10 @@
       </c>
       <c r="O118">
         <v>3</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="Q118">
         <v>24</v>
@@ -7203,6 +8075,10 @@
       <c r="O119">
         <v>26</v>
       </c>
+      <c r="P119">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
       <c r="Q119">
         <v>24</v>
       </c>
@@ -7247,6 +8123,10 @@
       <c r="O120">
         <v>3</v>
       </c>
+      <c r="P120">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q120">
         <v>24</v>
       </c>
@@ -7291,6 +8171,10 @@
       <c r="O121">
         <v>3</v>
       </c>
+      <c r="P121">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q121">
         <v>24</v>
       </c>
@@ -7335,6 +8219,10 @@
       <c r="O122">
         <v>1</v>
       </c>
+      <c r="P122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q122">
         <v>24</v>
       </c>
@@ -7379,6 +8267,10 @@
       <c r="O123">
         <v>13</v>
       </c>
+      <c r="P123">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
       <c r="Q123">
         <v>23</v>
       </c>
@@ -7423,6 +8315,10 @@
       <c r="O124">
         <v>4</v>
       </c>
+      <c r="P124">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="Q124">
         <v>23</v>
       </c>
@@ -7467,6 +8363,10 @@
       <c r="O125">
         <v>10</v>
       </c>
+      <c r="P125">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="Q125">
         <v>23</v>
       </c>
@@ -7511,6 +8411,10 @@
       <c r="O126">
         <v>1</v>
       </c>
+      <c r="P126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q126">
         <v>23</v>
       </c>
@@ -7555,6 +8459,10 @@
       <c r="O127">
         <v>3</v>
       </c>
+      <c r="P127">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="Q127">
         <v>23</v>
       </c>
@@ -7599,6 +8507,10 @@
       <c r="O128">
         <v>7</v>
       </c>
+      <c r="P128">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="Q128">
         <v>23</v>
       </c>
@@ -7643,6 +8555,10 @@
       <c r="O129">
         <v>8</v>
       </c>
+      <c r="P129">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="Q129">
         <v>22</v>
       </c>
@@ -7687,6 +8603,10 @@
       <c r="O130">
         <v>4</v>
       </c>
+      <c r="P130">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="Q130">
         <v>22</v>
       </c>
@@ -7731,6 +8651,10 @@
       <c r="O131">
         <v>3</v>
       </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P194" si="2">O131*O131</f>
+        <v>9</v>
+      </c>
       <c r="Q131">
         <v>22</v>
       </c>
@@ -7775,6 +8699,10 @@
       <c r="O132">
         <v>8</v>
       </c>
+      <c r="P132">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
       <c r="Q132">
         <v>22</v>
       </c>
@@ -7819,6 +8747,10 @@
       <c r="O133">
         <v>24</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
       <c r="Q133">
         <v>22</v>
       </c>
@@ -7863,6 +8795,10 @@
       <c r="O134">
         <v>20</v>
       </c>
+      <c r="P134">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
       <c r="Q134">
         <v>22</v>
       </c>
@@ -7907,6 +8843,10 @@
       <c r="O135">
         <v>6</v>
       </c>
+      <c r="P135">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q135">
         <v>22</v>
       </c>
@@ -7950,6 +8890,10 @@
       </c>
       <c r="O136">
         <v>12</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="Q136">
         <v>22</v>
@@ -7995,6 +8939,10 @@
       <c r="O137">
         <v>9</v>
       </c>
+      <c r="P137">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="Q137">
         <v>21</v>
       </c>
@@ -8039,6 +8987,10 @@
       <c r="O138">
         <v>10</v>
       </c>
+      <c r="P138">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="Q138">
         <v>21</v>
       </c>
@@ -8082,6 +9034,10 @@
       </c>
       <c r="O139">
         <v>4</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="Q139">
         <v>21</v>
@@ -8127,6 +9083,10 @@
       <c r="O140">
         <v>10</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="Q140">
         <v>21</v>
       </c>
@@ -8171,6 +9131,10 @@
       <c r="O141">
         <v>2</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q141">
         <v>21</v>
       </c>
@@ -8215,6 +9179,10 @@
       <c r="O142">
         <v>14</v>
       </c>
+      <c r="P142">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
       <c r="Q142">
         <v>21</v>
       </c>
@@ -8259,6 +9227,10 @@
       <c r="O143">
         <v>7</v>
       </c>
+      <c r="P143">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="Q143">
         <v>20</v>
       </c>
@@ -8303,6 +9275,10 @@
       <c r="O144">
         <v>23</v>
       </c>
+      <c r="P144">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
       <c r="Q144">
         <v>20</v>
       </c>
@@ -8347,6 +9323,10 @@
       <c r="O145">
         <v>6</v>
       </c>
+      <c r="P145">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q145">
         <v>20</v>
       </c>
@@ -8391,6 +9371,10 @@
       <c r="O146">
         <v>3</v>
       </c>
+      <c r="P146">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="Q146">
         <v>20</v>
       </c>
@@ -8435,6 +9419,10 @@
       <c r="O147">
         <v>4</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q147">
         <v>20</v>
       </c>
@@ -8479,6 +9467,10 @@
       <c r="O148">
         <v>1</v>
       </c>
+      <c r="P148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q148">
         <v>20</v>
       </c>
@@ -8522,6 +9514,10 @@
       </c>
       <c r="O149">
         <v>10</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="Q149">
         <v>20</v>
@@ -8567,6 +9563,10 @@
       <c r="O150">
         <v>9</v>
       </c>
+      <c r="P150">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="Q150">
         <v>20</v>
       </c>
@@ -8611,6 +9611,10 @@
       <c r="O151">
         <v>0</v>
       </c>
+      <c r="P151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q151">
         <v>19</v>
       </c>
@@ -8655,6 +9659,10 @@
       <c r="O152">
         <v>2</v>
       </c>
+      <c r="P152">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q152">
         <v>19</v>
       </c>
@@ -8698,6 +9706,10 @@
       </c>
       <c r="O153">
         <v>2</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q153">
         <v>19</v>
@@ -8743,6 +9755,10 @@
       <c r="O154">
         <v>0</v>
       </c>
+      <c r="P154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q154">
         <v>19</v>
       </c>
@@ -8787,6 +9803,10 @@
       <c r="O155">
         <v>4</v>
       </c>
+      <c r="P155">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q155">
         <v>19</v>
       </c>
@@ -8831,6 +9851,10 @@
       <c r="O156">
         <v>9</v>
       </c>
+      <c r="P156">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="Q156">
         <v>19</v>
       </c>
@@ -8875,6 +9899,10 @@
       <c r="O157">
         <v>12</v>
       </c>
+      <c r="P157">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
       <c r="Q157">
         <v>19</v>
       </c>
@@ -8919,6 +9947,10 @@
       <c r="O158">
         <v>7</v>
       </c>
+      <c r="P158">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="Q158">
         <v>19</v>
       </c>
@@ -8963,6 +9995,10 @@
       <c r="O159">
         <v>3</v>
       </c>
+      <c r="P159">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="Q159">
         <v>19</v>
       </c>
@@ -9007,6 +10043,10 @@
       <c r="O160">
         <v>8</v>
       </c>
+      <c r="P160">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
       <c r="Q160">
         <v>19</v>
       </c>
@@ -9051,6 +10091,10 @@
       <c r="O161">
         <v>10</v>
       </c>
+      <c r="P161">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="Q161">
         <v>18</v>
       </c>
@@ -9095,6 +10139,10 @@
       <c r="O162">
         <v>4</v>
       </c>
+      <c r="P162">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q162">
         <v>18</v>
       </c>
@@ -9139,6 +10187,10 @@
       <c r="O163">
         <v>2</v>
       </c>
+      <c r="P163">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q163">
         <v>18</v>
       </c>
@@ -9183,6 +10235,10 @@
       <c r="O164">
         <v>6</v>
       </c>
+      <c r="P164">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q164">
         <v>18</v>
       </c>
@@ -9227,6 +10283,10 @@
       <c r="O165">
         <v>32</v>
       </c>
+      <c r="P165">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
       <c r="Q165">
         <v>18</v>
       </c>
@@ -9270,6 +10330,10 @@
       </c>
       <c r="O166">
         <v>4</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="Q166">
         <v>18</v>
@@ -9315,6 +10379,10 @@
       <c r="O167">
         <v>3</v>
       </c>
+      <c r="P167">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="Q167">
         <v>18</v>
       </c>
@@ -9359,6 +10427,10 @@
       <c r="O168">
         <v>6</v>
       </c>
+      <c r="P168">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q168">
         <v>18</v>
       </c>
@@ -9403,6 +10475,10 @@
       <c r="O169">
         <v>0</v>
       </c>
+      <c r="P169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q169">
         <v>18</v>
       </c>
@@ -9446,6 +10522,10 @@
       </c>
       <c r="O170">
         <v>11</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="2"/>
+        <v>121</v>
       </c>
       <c r="Q170">
         <v>18</v>
@@ -9491,6 +10571,10 @@
       <c r="O171">
         <v>7</v>
       </c>
+      <c r="P171">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="Q171">
         <v>18</v>
       </c>
@@ -9535,6 +10619,10 @@
       <c r="O172">
         <v>3</v>
       </c>
+      <c r="P172">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="Q172">
         <v>18</v>
       </c>
@@ -9579,6 +10667,10 @@
       <c r="O173">
         <v>6</v>
       </c>
+      <c r="P173">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q173">
         <v>18</v>
       </c>
@@ -9622,6 +10714,10 @@
       </c>
       <c r="O174">
         <v>2</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q174">
         <v>18</v>
@@ -9667,6 +10763,10 @@
       <c r="O175">
         <v>2</v>
       </c>
+      <c r="P175">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q175">
         <v>18</v>
       </c>
@@ -9711,6 +10811,10 @@
       <c r="O176">
         <v>2</v>
       </c>
+      <c r="P176">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q176">
         <v>18</v>
       </c>
@@ -9755,6 +10859,10 @@
       <c r="O177">
         <v>1</v>
       </c>
+      <c r="P177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q177">
         <v>17</v>
       </c>
@@ -9799,6 +10907,10 @@
       <c r="O178">
         <v>4</v>
       </c>
+      <c r="P178">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q178">
         <v>17</v>
       </c>
@@ -9843,6 +10955,10 @@
       <c r="O179">
         <v>2</v>
       </c>
+      <c r="P179">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q179">
         <v>17</v>
       </c>
@@ -9887,6 +11003,10 @@
       <c r="O180">
         <v>1</v>
       </c>
+      <c r="P180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q180">
         <v>17</v>
       </c>
@@ -9930,6 +11050,10 @@
       </c>
       <c r="O181">
         <v>2</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q181">
         <v>17</v>
@@ -9975,6 +11099,10 @@
       <c r="O182">
         <v>9</v>
       </c>
+      <c r="P182">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
       <c r="Q182">
         <v>17</v>
       </c>
@@ -10019,6 +11147,10 @@
       <c r="O183">
         <v>4</v>
       </c>
+      <c r="P183">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q183">
         <v>17</v>
       </c>
@@ -10063,6 +11195,10 @@
       <c r="O184">
         <v>4</v>
       </c>
+      <c r="P184">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Q184">
         <v>17</v>
       </c>
@@ -10107,6 +11243,10 @@
       <c r="O185">
         <v>3</v>
       </c>
+      <c r="P185">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="Q185">
         <v>16</v>
       </c>
@@ -10151,6 +11291,10 @@
       <c r="O186">
         <v>6</v>
       </c>
+      <c r="P186">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q186">
         <v>16</v>
       </c>
@@ -10195,6 +11339,10 @@
       <c r="O187">
         <v>6</v>
       </c>
+      <c r="P187">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
       <c r="Q187">
         <v>16</v>
       </c>
@@ -10239,6 +11387,10 @@
       <c r="O188">
         <v>1</v>
       </c>
+      <c r="P188">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q188">
         <v>16</v>
       </c>
@@ -10283,6 +11435,10 @@
       <c r="O189">
         <v>2</v>
       </c>
+      <c r="P189">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q189">
         <v>16</v>
       </c>
@@ -10326,6 +11482,10 @@
       </c>
       <c r="O190">
         <v>2</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q190">
         <v>16</v>
@@ -10371,6 +11531,10 @@
       <c r="O191">
         <v>2</v>
       </c>
+      <c r="P191">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="Q191">
         <v>16</v>
       </c>
@@ -10414,6 +11578,10 @@
       </c>
       <c r="O192">
         <v>3</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Q192">
         <v>16</v>
@@ -10459,6 +11627,10 @@
       <c r="O193">
         <v>7</v>
       </c>
+      <c r="P193">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
       <c r="Q193">
         <v>16</v>
       </c>
@@ -10502,6 +11674,10 @@
       </c>
       <c r="O194">
         <v>4</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="Q194">
         <v>16</v>
@@ -10547,6 +11723,10 @@
       <c r="O195">
         <v>12</v>
       </c>
+      <c r="P195">
+        <f t="shared" ref="P195:P258" si="3">O195*O195</f>
+        <v>144</v>
+      </c>
       <c r="Q195">
         <v>16</v>
       </c>
@@ -10591,6 +11771,10 @@
       <c r="O196">
         <v>2</v>
       </c>
+      <c r="P196">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q196">
         <v>16</v>
       </c>
@@ -10635,6 +11819,10 @@
       <c r="O197">
         <v>8</v>
       </c>
+      <c r="P197">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
       <c r="Q197">
         <v>15</v>
       </c>
@@ -10679,6 +11867,10 @@
       <c r="O198">
         <v>1</v>
       </c>
+      <c r="P198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q198">
         <v>15</v>
       </c>
@@ -10723,6 +11915,10 @@
       <c r="O199">
         <v>1</v>
       </c>
+      <c r="P199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q199">
         <v>15</v>
       </c>
@@ -10767,6 +11963,10 @@
       <c r="O200">
         <v>1</v>
       </c>
+      <c r="P200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q200">
         <v>15</v>
       </c>
@@ -10811,6 +12011,10 @@
       <c r="O201">
         <v>4</v>
       </c>
+      <c r="P201">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q201">
         <v>15</v>
       </c>
@@ -10855,6 +12059,10 @@
       <c r="O202">
         <v>2</v>
       </c>
+      <c r="P202">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q202">
         <v>15</v>
       </c>
@@ -10899,6 +12107,10 @@
       <c r="O203">
         <v>3</v>
       </c>
+      <c r="P203">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q203">
         <v>15</v>
       </c>
@@ -10943,6 +12155,10 @@
       <c r="O204">
         <v>0</v>
       </c>
+      <c r="P204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q204">
         <v>15</v>
       </c>
@@ -10987,6 +12203,10 @@
       <c r="O205">
         <v>2</v>
       </c>
+      <c r="P205">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q205">
         <v>15</v>
       </c>
@@ -11030,6 +12250,10 @@
       </c>
       <c r="O206">
         <v>4</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="Q206">
         <v>15</v>
@@ -11075,6 +12299,10 @@
       <c r="O207">
         <v>5</v>
       </c>
+      <c r="P207">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q207">
         <v>15</v>
       </c>
@@ -11119,6 +12347,10 @@
       <c r="O208">
         <v>1</v>
       </c>
+      <c r="P208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q208">
         <v>15</v>
       </c>
@@ -11162,6 +12394,10 @@
       </c>
       <c r="O209">
         <v>7</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="Q209">
         <v>15</v>
@@ -11207,6 +12443,10 @@
       <c r="O210">
         <v>9</v>
       </c>
+      <c r="P210">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
       <c r="Q210">
         <v>14</v>
       </c>
@@ -11251,6 +12491,10 @@
       <c r="O211">
         <v>3</v>
       </c>
+      <c r="P211">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q211">
         <v>14</v>
       </c>
@@ -11295,6 +12539,10 @@
       <c r="O212">
         <v>2</v>
       </c>
+      <c r="P212">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q212">
         <v>14</v>
       </c>
@@ -11339,6 +12587,10 @@
       <c r="O213">
         <v>0</v>
       </c>
+      <c r="P213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q213">
         <v>14</v>
       </c>
@@ -11383,6 +12635,10 @@
       <c r="O214">
         <v>2</v>
       </c>
+      <c r="P214">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q214">
         <v>14</v>
       </c>
@@ -11427,6 +12683,10 @@
       <c r="O215">
         <v>6</v>
       </c>
+      <c r="P215">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
       <c r="Q215">
         <v>14</v>
       </c>
@@ -11471,6 +12731,10 @@
       <c r="O216">
         <v>2</v>
       </c>
+      <c r="P216">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q216">
         <v>14</v>
       </c>
@@ -11515,6 +12779,10 @@
       <c r="O217">
         <v>2</v>
       </c>
+      <c r="P217">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q217">
         <v>14</v>
       </c>
@@ -11559,6 +12827,10 @@
       <c r="O218">
         <v>2</v>
       </c>
+      <c r="P218">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q218">
         <v>14</v>
       </c>
@@ -11601,6 +12873,10 @@
         <v>5</v>
       </c>
       <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q219">
@@ -11647,6 +12923,10 @@
       <c r="O220">
         <v>4</v>
       </c>
+      <c r="P220">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q220">
         <v>14</v>
       </c>
@@ -11691,6 +12971,10 @@
       <c r="O221">
         <v>4</v>
       </c>
+      <c r="P221">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q221">
         <v>14</v>
       </c>
@@ -11735,6 +13019,10 @@
       <c r="O222">
         <v>3</v>
       </c>
+      <c r="P222">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q222">
         <v>14</v>
       </c>
@@ -11779,6 +13067,10 @@
       <c r="O223">
         <v>1</v>
       </c>
+      <c r="P223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q223">
         <v>14</v>
       </c>
@@ -11823,6 +13115,10 @@
       <c r="O224">
         <v>3</v>
       </c>
+      <c r="P224">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q224">
         <v>14</v>
       </c>
@@ -11867,6 +13163,10 @@
       <c r="O225">
         <v>7</v>
       </c>
+      <c r="P225">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
       <c r="Q225">
         <v>14</v>
       </c>
@@ -11911,6 +13211,10 @@
       <c r="O226">
         <v>1</v>
       </c>
+      <c r="P226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q226">
         <v>14</v>
       </c>
@@ -11953,6 +13257,10 @@
         <v>1</v>
       </c>
       <c r="O227">
+        <v>1</v>
+      </c>
+      <c r="P227">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q227">
@@ -11999,6 +13307,10 @@
       <c r="O228">
         <v>2</v>
       </c>
+      <c r="P228">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q228">
         <v>13</v>
       </c>
@@ -12043,6 +13355,10 @@
       <c r="O229">
         <v>5</v>
       </c>
+      <c r="P229">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q229">
         <v>13</v>
       </c>
@@ -12087,6 +13403,10 @@
       <c r="O230">
         <v>5</v>
       </c>
+      <c r="P230">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q230">
         <v>13</v>
       </c>
@@ -12131,6 +13451,10 @@
       <c r="O231">
         <v>6</v>
       </c>
+      <c r="P231">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
       <c r="Q231">
         <v>13</v>
       </c>
@@ -12175,6 +13499,10 @@
       <c r="O232">
         <v>1</v>
       </c>
+      <c r="P232">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q232">
         <v>13</v>
       </c>
@@ -12219,6 +13547,10 @@
       <c r="O233">
         <v>2</v>
       </c>
+      <c r="P233">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q233">
         <v>13</v>
       </c>
@@ -12263,6 +13595,10 @@
       <c r="O234">
         <v>5</v>
       </c>
+      <c r="P234">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q234">
         <v>13</v>
       </c>
@@ -12307,6 +13643,10 @@
       <c r="O235">
         <v>3</v>
       </c>
+      <c r="P235">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q235">
         <v>13</v>
       </c>
@@ -12351,6 +13691,10 @@
       <c r="O236">
         <v>7</v>
       </c>
+      <c r="P236">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
       <c r="Q236">
         <v>13</v>
       </c>
@@ -12395,6 +13739,10 @@
       <c r="O237">
         <v>3</v>
       </c>
+      <c r="P237">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q237">
         <v>13</v>
       </c>
@@ -12439,6 +13787,10 @@
       <c r="O238">
         <v>5</v>
       </c>
+      <c r="P238">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q238">
         <v>13</v>
       </c>
@@ -12483,6 +13835,10 @@
       <c r="O239">
         <v>4</v>
       </c>
+      <c r="P239">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q239">
         <v>13</v>
       </c>
@@ -12527,6 +13883,10 @@
       <c r="O240">
         <v>2</v>
       </c>
+      <c r="P240">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q240">
         <v>13</v>
       </c>
@@ -12571,6 +13931,10 @@
       <c r="O241">
         <v>2</v>
       </c>
+      <c r="P241">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q241">
         <v>13</v>
       </c>
@@ -12615,6 +13979,10 @@
       <c r="O242">
         <v>0</v>
       </c>
+      <c r="P242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q242">
         <v>13</v>
       </c>
@@ -12658,6 +14026,10 @@
       </c>
       <c r="O243">
         <v>2</v>
+      </c>
+      <c r="P243">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="Q243">
         <v>13</v>
@@ -12703,6 +14075,10 @@
       <c r="O244">
         <v>6</v>
       </c>
+      <c r="P244">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
       <c r="Q244">
         <v>13</v>
       </c>
@@ -12747,6 +14123,10 @@
       <c r="O245">
         <v>3</v>
       </c>
+      <c r="P245">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q245">
         <v>13</v>
       </c>
@@ -12791,6 +14171,10 @@
       <c r="O246">
         <v>2</v>
       </c>
+      <c r="P246">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="Q246">
         <v>13</v>
       </c>
@@ -12835,6 +14219,10 @@
       <c r="O247">
         <v>3</v>
       </c>
+      <c r="P247">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q247">
         <v>13</v>
       </c>
@@ -12879,6 +14267,10 @@
       <c r="O248">
         <v>0</v>
       </c>
+      <c r="P248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q248">
         <v>13</v>
       </c>
@@ -12923,6 +14315,10 @@
       <c r="O249">
         <v>3</v>
       </c>
+      <c r="P249">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q249">
         <v>13</v>
       </c>
@@ -12967,6 +14363,10 @@
       <c r="O250">
         <v>5</v>
       </c>
+      <c r="P250">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
       <c r="Q250">
         <v>13</v>
       </c>
@@ -13011,6 +14411,10 @@
       <c r="O251">
         <v>3</v>
       </c>
+      <c r="P251">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="Q251">
         <v>12</v>
       </c>
@@ -13053,6 +14457,10 @@
         <v>1</v>
       </c>
       <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q252">
@@ -13099,6 +14507,10 @@
       <c r="O253">
         <v>4</v>
       </c>
+      <c r="P253">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q253">
         <v>12</v>
       </c>
@@ -13141,6 +14553,10 @@
         <v>1</v>
       </c>
       <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q254">
@@ -13187,6 +14603,10 @@
       <c r="O255">
         <v>4</v>
       </c>
+      <c r="P255">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="Q255">
         <v>12</v>
       </c>
@@ -13231,6 +14651,10 @@
       <c r="O256">
         <v>1</v>
       </c>
+      <c r="P256">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q256">
         <v>12</v>
       </c>
@@ -13275,6 +14699,10 @@
       <c r="O257">
         <v>1</v>
       </c>
+      <c r="P257">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q257">
         <v>12</v>
       </c>
@@ -13319,6 +14747,10 @@
       <c r="O258">
         <v>0</v>
       </c>
+      <c r="P258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Q258">
         <v>12</v>
       </c>
@@ -13363,6 +14795,10 @@
       <c r="O259">
         <v>7</v>
       </c>
+      <c r="P259">
+        <f t="shared" ref="P259:P322" si="4">O259*O259</f>
+        <v>49</v>
+      </c>
       <c r="Q259">
         <v>12</v>
       </c>
@@ -13405,6 +14841,10 @@
         <v>2</v>
       </c>
       <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q260">
@@ -13451,6 +14891,10 @@
       <c r="O261">
         <v>1</v>
       </c>
+      <c r="P261">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q261">
         <v>12</v>
       </c>
@@ -13495,6 +14939,10 @@
       <c r="O262">
         <v>5</v>
       </c>
+      <c r="P262">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="Q262">
         <v>12</v>
       </c>
@@ -13539,6 +14987,10 @@
       <c r="O263">
         <v>4</v>
       </c>
+      <c r="P263">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q263">
         <v>12</v>
       </c>
@@ -13583,6 +15035,10 @@
       <c r="O264">
         <v>4</v>
       </c>
+      <c r="P264">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q264">
         <v>12</v>
       </c>
@@ -13626,6 +15082,10 @@
       </c>
       <c r="O265">
         <v>2</v>
+      </c>
+      <c r="P265">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q265">
         <v>12</v>
@@ -13671,6 +15131,10 @@
       <c r="O266">
         <v>4</v>
       </c>
+      <c r="P266">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q266">
         <v>12</v>
       </c>
@@ -13715,6 +15179,10 @@
       <c r="O267">
         <v>0</v>
       </c>
+      <c r="P267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q267">
         <v>12</v>
       </c>
@@ -13759,6 +15227,10 @@
       <c r="O268">
         <v>1</v>
       </c>
+      <c r="P268">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q268">
         <v>12</v>
       </c>
@@ -13802,6 +15274,10 @@
       </c>
       <c r="O269">
         <v>5</v>
+      </c>
+      <c r="P269">
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="Q269">
         <v>12</v>
@@ -13847,6 +15323,10 @@
       <c r="O270">
         <v>1</v>
       </c>
+      <c r="P270">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q270">
         <v>12</v>
       </c>
@@ -13891,6 +15371,10 @@
       <c r="O271">
         <v>6</v>
       </c>
+      <c r="P271">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
       <c r="Q271">
         <v>12</v>
       </c>
@@ -13933,6 +15417,10 @@
         <v>3</v>
       </c>
       <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q272">
@@ -13979,6 +15467,10 @@
       <c r="O273">
         <v>2</v>
       </c>
+      <c r="P273">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q273">
         <v>12</v>
       </c>
@@ -14023,6 +15515,10 @@
       <c r="O274">
         <v>1</v>
       </c>
+      <c r="P274">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q274">
         <v>12</v>
       </c>
@@ -14065,6 +15561,10 @@
         <v>1</v>
       </c>
       <c r="O275">
+        <v>1</v>
+      </c>
+      <c r="P275">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q275">
@@ -14111,6 +15611,10 @@
       <c r="O276">
         <v>6</v>
       </c>
+      <c r="P276">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
       <c r="Q276">
         <v>12</v>
       </c>
@@ -14155,6 +15659,10 @@
       <c r="O277">
         <v>4</v>
       </c>
+      <c r="P277">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q277">
         <v>12</v>
       </c>
@@ -14199,6 +15707,10 @@
       <c r="O278">
         <v>5</v>
       </c>
+      <c r="P278">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="Q278">
         <v>12</v>
       </c>
@@ -14243,6 +15755,10 @@
       <c r="O279">
         <v>0</v>
       </c>
+      <c r="P279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q279">
         <v>11</v>
       </c>
@@ -14287,6 +15803,10 @@
       <c r="O280">
         <v>0</v>
       </c>
+      <c r="P280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q280">
         <v>11</v>
       </c>
@@ -14331,6 +15851,10 @@
       <c r="O281">
         <v>2</v>
       </c>
+      <c r="P281">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q281">
         <v>11</v>
       </c>
@@ -14375,6 +15899,10 @@
       <c r="O282">
         <v>4</v>
       </c>
+      <c r="P282">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q282">
         <v>11</v>
       </c>
@@ -14419,6 +15947,10 @@
       <c r="O283">
         <v>3</v>
       </c>
+      <c r="P283">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q283">
         <v>11</v>
       </c>
@@ -14463,6 +15995,10 @@
       <c r="O284">
         <v>2</v>
       </c>
+      <c r="P284">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q284">
         <v>11</v>
       </c>
@@ -14506,6 +16042,10 @@
       </c>
       <c r="O285">
         <v>5</v>
+      </c>
+      <c r="P285">
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="Q285">
         <v>11</v>
@@ -14551,6 +16091,10 @@
       <c r="O286">
         <v>4</v>
       </c>
+      <c r="P286">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q286">
         <v>11</v>
       </c>
@@ -14595,6 +16139,10 @@
       <c r="O287">
         <v>0</v>
       </c>
+      <c r="P287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q287">
         <v>11</v>
       </c>
@@ -14639,6 +16187,10 @@
       <c r="O288">
         <v>8</v>
       </c>
+      <c r="P288">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
       <c r="Q288">
         <v>11</v>
       </c>
@@ -14683,6 +16235,10 @@
       <c r="O289">
         <v>5</v>
       </c>
+      <c r="P289">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="Q289">
         <v>11</v>
       </c>
@@ -14727,6 +16283,10 @@
       <c r="O290">
         <v>2</v>
       </c>
+      <c r="P290">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q290">
         <v>11</v>
       </c>
@@ -14771,6 +16331,10 @@
       <c r="O291">
         <v>1</v>
       </c>
+      <c r="P291">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q291">
         <v>11</v>
       </c>
@@ -14815,6 +16379,10 @@
       <c r="O292">
         <v>1</v>
       </c>
+      <c r="P292">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q292">
         <v>11</v>
       </c>
@@ -14857,6 +16425,10 @@
         <v>4</v>
       </c>
       <c r="O293">
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q293">
@@ -14903,6 +16475,10 @@
       <c r="O294">
         <v>0</v>
       </c>
+      <c r="P294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q294">
         <v>11</v>
       </c>
@@ -14947,6 +16523,10 @@
       <c r="O295">
         <v>2</v>
       </c>
+      <c r="P295">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q295">
         <v>11</v>
       </c>
@@ -14991,6 +16571,10 @@
       <c r="O296">
         <v>3</v>
       </c>
+      <c r="P296">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q296">
         <v>11</v>
       </c>
@@ -15033,6 +16617,10 @@
         <v>0</v>
       </c>
       <c r="O297">
+        <v>1</v>
+      </c>
+      <c r="P297">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q297">
@@ -15079,6 +16667,10 @@
       <c r="O298">
         <v>8</v>
       </c>
+      <c r="P298">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
       <c r="Q298">
         <v>11</v>
       </c>
@@ -15123,6 +16715,10 @@
       <c r="O299">
         <v>4</v>
       </c>
+      <c r="P299">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="Q299">
         <v>11</v>
       </c>
@@ -15167,6 +16763,10 @@
       <c r="O300">
         <v>0</v>
       </c>
+      <c r="P300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q300">
         <v>11</v>
       </c>
@@ -15211,6 +16811,10 @@
       <c r="O301">
         <v>5</v>
       </c>
+      <c r="P301">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
       <c r="Q301">
         <v>11</v>
       </c>
@@ -15255,6 +16859,10 @@
       <c r="O302">
         <v>1</v>
       </c>
+      <c r="P302">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q302">
         <v>11</v>
       </c>
@@ -15298,6 +16906,10 @@
       </c>
       <c r="O303">
         <v>2</v>
+      </c>
+      <c r="P303">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q303">
         <v>10</v>
@@ -15343,6 +16955,10 @@
       <c r="O304">
         <v>13</v>
       </c>
+      <c r="P304">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
       <c r="Q304">
         <v>10</v>
       </c>
@@ -15387,6 +17003,10 @@
       <c r="O305">
         <v>3</v>
       </c>
+      <c r="P305">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q305">
         <v>10</v>
       </c>
@@ -15431,6 +17051,10 @@
       <c r="O306">
         <v>1</v>
       </c>
+      <c r="P306">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q306">
         <v>10</v>
       </c>
@@ -15475,6 +17099,10 @@
       <c r="O307">
         <v>0</v>
       </c>
+      <c r="P307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q307">
         <v>10</v>
       </c>
@@ -15519,6 +17147,10 @@
       <c r="O308">
         <v>1</v>
       </c>
+      <c r="P308">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q308">
         <v>10</v>
       </c>
@@ -15563,6 +17195,10 @@
       <c r="O309">
         <v>3</v>
       </c>
+      <c r="P309">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q309">
         <v>10</v>
       </c>
@@ -15607,6 +17243,10 @@
       <c r="O310">
         <v>2</v>
       </c>
+      <c r="P310">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q310">
         <v>10</v>
       </c>
@@ -15650,6 +17290,10 @@
       </c>
       <c r="O311">
         <v>9</v>
+      </c>
+      <c r="P311">
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="Q311">
         <v>10</v>
@@ -15695,6 +17339,10 @@
       <c r="O312">
         <v>2</v>
       </c>
+      <c r="P312">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q312">
         <v>10</v>
       </c>
@@ -15739,6 +17387,10 @@
       <c r="O313">
         <v>2</v>
       </c>
+      <c r="P313">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q313">
         <v>10</v>
       </c>
@@ -15783,6 +17435,10 @@
       <c r="O314">
         <v>3</v>
       </c>
+      <c r="P314">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q314">
         <v>10</v>
       </c>
@@ -15827,6 +17483,10 @@
       <c r="O315">
         <v>1</v>
       </c>
+      <c r="P315">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q315">
         <v>10</v>
       </c>
@@ -15871,6 +17531,10 @@
       <c r="O316">
         <v>2</v>
       </c>
+      <c r="P316">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q316">
         <v>10</v>
       </c>
@@ -15915,6 +17579,10 @@
       <c r="O317">
         <v>3</v>
       </c>
+      <c r="P317">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="Q317">
         <v>10</v>
       </c>
@@ -15959,6 +17627,10 @@
       <c r="O318">
         <v>2</v>
       </c>
+      <c r="P318">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q318">
         <v>10</v>
       </c>
@@ -16002,6 +17674,10 @@
       </c>
       <c r="O319">
         <v>4</v>
+      </c>
+      <c r="P319">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="Q319">
         <v>10</v>
@@ -16047,6 +17723,10 @@
       <c r="O320">
         <v>2</v>
       </c>
+      <c r="P320">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="Q320">
         <v>10</v>
       </c>
@@ -16091,6 +17771,10 @@
       <c r="O321">
         <v>1</v>
       </c>
+      <c r="P321">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Q321">
         <v>10</v>
       </c>
@@ -16133,6 +17817,10 @@
         <v>3</v>
       </c>
       <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q322">
@@ -16179,6 +17867,10 @@
       <c r="O323">
         <v>3</v>
       </c>
+      <c r="P323">
+        <f t="shared" ref="P323:P386" si="5">O323*O323</f>
+        <v>9</v>
+      </c>
       <c r="Q323">
         <v>10</v>
       </c>
@@ -16223,6 +17915,10 @@
       <c r="O324">
         <v>1</v>
       </c>
+      <c r="P324">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q324">
         <v>10</v>
       </c>
@@ -16267,6 +17963,10 @@
       <c r="O325">
         <v>3</v>
       </c>
+      <c r="P325">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q325">
         <v>10</v>
       </c>
@@ -16310,6 +18010,10 @@
       </c>
       <c r="O326">
         <v>4</v>
+      </c>
+      <c r="P326">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="Q326">
         <v>10</v>
@@ -16355,6 +18059,10 @@
       <c r="O327">
         <v>0</v>
       </c>
+      <c r="P327">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q327">
         <v>10</v>
       </c>
@@ -16399,6 +18107,10 @@
       <c r="O328">
         <v>1</v>
       </c>
+      <c r="P328">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q328">
         <v>10</v>
       </c>
@@ -16443,6 +18155,10 @@
       <c r="O329">
         <v>0</v>
       </c>
+      <c r="P329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q329">
         <v>10</v>
       </c>
@@ -16486,6 +18202,10 @@
       </c>
       <c r="O330">
         <v>3</v>
+      </c>
+      <c r="P330">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="Q330">
         <v>10</v>
@@ -16531,6 +18251,10 @@
       <c r="O331">
         <v>5</v>
       </c>
+      <c r="P331">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
       <c r="Q331">
         <v>10</v>
       </c>
@@ -16575,6 +18299,10 @@
       <c r="O332">
         <v>2</v>
       </c>
+      <c r="P332">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q332">
         <v>10</v>
       </c>
@@ -16619,6 +18347,10 @@
       <c r="O333">
         <v>2</v>
       </c>
+      <c r="P333">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q333">
         <v>9</v>
       </c>
@@ -16662,6 +18394,10 @@
       </c>
       <c r="O334">
         <v>4</v>
+      </c>
+      <c r="P334">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="Q334">
         <v>9</v>
@@ -16707,6 +18443,10 @@
       <c r="O335">
         <v>1</v>
       </c>
+      <c r="P335">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q335">
         <v>9</v>
       </c>
@@ -16751,6 +18491,10 @@
       <c r="O336">
         <v>2</v>
       </c>
+      <c r="P336">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q336">
         <v>9</v>
       </c>
@@ -16795,6 +18539,10 @@
       <c r="O337">
         <v>6</v>
       </c>
+      <c r="P337">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
       <c r="Q337">
         <v>9</v>
       </c>
@@ -16837,6 +18585,10 @@
         <v>1</v>
       </c>
       <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q338">
@@ -16883,6 +18635,10 @@
       <c r="O339">
         <v>3</v>
       </c>
+      <c r="P339">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q339">
         <v>9</v>
       </c>
@@ -16927,6 +18683,10 @@
       <c r="O340">
         <v>1</v>
       </c>
+      <c r="P340">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q340">
         <v>9</v>
       </c>
@@ -16971,6 +18731,10 @@
       <c r="O341">
         <v>4</v>
       </c>
+      <c r="P341">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="Q341">
         <v>9</v>
       </c>
@@ -17015,6 +18779,10 @@
       <c r="O342">
         <v>1</v>
       </c>
+      <c r="P342">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q342">
         <v>9</v>
       </c>
@@ -17059,6 +18827,10 @@
       <c r="O343">
         <v>2</v>
       </c>
+      <c r="P343">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q343">
         <v>9</v>
       </c>
@@ -17103,6 +18875,10 @@
       <c r="O344">
         <v>5</v>
       </c>
+      <c r="P344">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
       <c r="Q344">
         <v>9</v>
       </c>
@@ -17147,6 +18923,10 @@
       <c r="O345">
         <v>0</v>
       </c>
+      <c r="P345">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q345">
         <v>9</v>
       </c>
@@ -17191,6 +18971,10 @@
       <c r="O346">
         <v>1</v>
       </c>
+      <c r="P346">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q346">
         <v>9</v>
       </c>
@@ -17235,6 +19019,10 @@
       <c r="O347">
         <v>3</v>
       </c>
+      <c r="P347">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q347">
         <v>9</v>
       </c>
@@ -17279,6 +19067,10 @@
       <c r="O348">
         <v>3</v>
       </c>
+      <c r="P348">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q348">
         <v>9</v>
       </c>
@@ -17321,6 +19113,10 @@
         <v>1</v>
       </c>
       <c r="O349">
+        <v>1</v>
+      </c>
+      <c r="P349">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q349">
@@ -17367,6 +19163,10 @@
       <c r="O350">
         <v>6</v>
       </c>
+      <c r="P350">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
       <c r="Q350">
         <v>9</v>
       </c>
@@ -17411,6 +19211,10 @@
       <c r="O351">
         <v>0</v>
       </c>
+      <c r="P351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q351">
         <v>9</v>
       </c>
@@ -17455,6 +19259,10 @@
       <c r="O352">
         <v>3</v>
       </c>
+      <c r="P352">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q352">
         <v>9</v>
       </c>
@@ -17498,6 +19306,10 @@
       </c>
       <c r="O353">
         <v>3</v>
+      </c>
+      <c r="P353">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="Q353">
         <v>9</v>
@@ -17543,6 +19355,10 @@
       <c r="O354">
         <v>9</v>
       </c>
+      <c r="P354">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
       <c r="Q354">
         <v>9</v>
       </c>
@@ -17587,6 +19403,10 @@
       <c r="O355">
         <v>0</v>
       </c>
+      <c r="P355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q355">
         <v>9</v>
       </c>
@@ -17629,6 +19449,10 @@
         <v>1</v>
       </c>
       <c r="O356">
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q356">
@@ -17675,6 +19499,10 @@
       <c r="O357">
         <v>12</v>
       </c>
+      <c r="P357">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
       <c r="Q357">
         <v>9</v>
       </c>
@@ -17719,6 +19547,10 @@
       <c r="O358">
         <v>2</v>
       </c>
+      <c r="P358">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q358">
         <v>9</v>
       </c>
@@ -17762,6 +19594,10 @@
       </c>
       <c r="O359">
         <v>4</v>
+      </c>
+      <c r="P359">
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="Q359">
         <v>9</v>
@@ -17807,6 +19643,10 @@
       <c r="O360">
         <v>5</v>
       </c>
+      <c r="P360">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
       <c r="Q360">
         <v>9</v>
       </c>
@@ -17851,6 +19691,10 @@
       <c r="O361">
         <v>4</v>
       </c>
+      <c r="P361">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="Q361">
         <v>9</v>
       </c>
@@ -17895,6 +19739,10 @@
       <c r="O362">
         <v>2</v>
       </c>
+      <c r="P362">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q362">
         <v>9</v>
       </c>
@@ -17939,6 +19787,10 @@
       <c r="O363">
         <v>3</v>
       </c>
+      <c r="P363">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q363">
         <v>9</v>
       </c>
@@ -17982,6 +19834,10 @@
       </c>
       <c r="O364">
         <v>2</v>
+      </c>
+      <c r="P364">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Q364">
         <v>9</v>
@@ -18027,6 +19883,10 @@
       <c r="O365">
         <v>0</v>
       </c>
+      <c r="P365">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q365">
         <v>9</v>
       </c>
@@ -18071,6 +19931,10 @@
       <c r="O366">
         <v>0</v>
       </c>
+      <c r="P366">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q366">
         <v>9</v>
       </c>
@@ -18114,6 +19978,10 @@
       </c>
       <c r="O367">
         <v>2</v>
+      </c>
+      <c r="P367">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Q367">
         <v>9</v>
@@ -18159,6 +20027,10 @@
       <c r="O368">
         <v>3</v>
       </c>
+      <c r="P368">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q368">
         <v>9</v>
       </c>
@@ -18203,6 +20075,10 @@
       <c r="O369">
         <v>0</v>
       </c>
+      <c r="P369">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q369">
         <v>9</v>
       </c>
@@ -18247,6 +20123,10 @@
       <c r="O370">
         <v>2</v>
       </c>
+      <c r="P370">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q370">
         <v>9</v>
       </c>
@@ -18291,6 +20171,10 @@
       <c r="O371">
         <v>4</v>
       </c>
+      <c r="P371">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="Q371">
         <v>9</v>
       </c>
@@ -18335,6 +20219,10 @@
       <c r="O372">
         <v>2</v>
       </c>
+      <c r="P372">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q372">
         <v>9</v>
       </c>
@@ -18379,6 +20267,10 @@
       <c r="O373">
         <v>1</v>
       </c>
+      <c r="P373">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q373">
         <v>9</v>
       </c>
@@ -18423,6 +20315,10 @@
       <c r="O374">
         <v>2</v>
       </c>
+      <c r="P374">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q374">
         <v>9</v>
       </c>
@@ -18466,6 +20362,10 @@
       </c>
       <c r="O375">
         <v>3</v>
+      </c>
+      <c r="P375">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="Q375">
         <v>9</v>
@@ -18511,6 +20411,10 @@
       <c r="O376">
         <v>2</v>
       </c>
+      <c r="P376">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q376">
         <v>9</v>
       </c>
@@ -18553,6 +20457,10 @@
         <v>1</v>
       </c>
       <c r="O377">
+        <v>1</v>
+      </c>
+      <c r="P377">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q377">
@@ -18599,6 +20507,10 @@
       <c r="O378">
         <v>1</v>
       </c>
+      <c r="P378">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Q378">
         <v>9</v>
       </c>
@@ -18641,6 +20553,10 @@
         <v>1</v>
       </c>
       <c r="O379">
+        <v>1</v>
+      </c>
+      <c r="P379">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q379">
@@ -18687,6 +20603,10 @@
       <c r="O380">
         <v>2</v>
       </c>
+      <c r="P380">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q380">
         <v>8</v>
       </c>
@@ -18731,6 +20651,10 @@
       <c r="O381">
         <v>0</v>
       </c>
+      <c r="P381">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Q381">
         <v>8</v>
       </c>
@@ -18774,6 +20698,10 @@
       </c>
       <c r="O382">
         <v>2</v>
+      </c>
+      <c r="P382">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Q382">
         <v>8</v>
@@ -18819,6 +20747,10 @@
       <c r="O383">
         <v>7</v>
       </c>
+      <c r="P383">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
       <c r="Q383">
         <v>8</v>
       </c>
@@ -18863,6 +20795,10 @@
       <c r="O384">
         <v>2</v>
       </c>
+      <c r="P384">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="Q384">
         <v>8</v>
       </c>
@@ -18907,6 +20843,10 @@
       <c r="O385">
         <v>3</v>
       </c>
+      <c r="P385">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="Q385">
         <v>8</v>
       </c>
@@ -18949,6 +20889,10 @@
         <v>1</v>
       </c>
       <c r="O386">
+        <v>1</v>
+      </c>
+      <c r="P386">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q386">
@@ -18995,6 +20939,10 @@
       <c r="O387">
         <v>1</v>
       </c>
+      <c r="P387">
+        <f t="shared" ref="P387:P450" si="6">O387*O387</f>
+        <v>1</v>
+      </c>
       <c r="Q387">
         <v>8</v>
       </c>
@@ -19037,6 +20985,10 @@
         <v>1</v>
       </c>
       <c r="O388">
+        <v>0</v>
+      </c>
+      <c r="P388">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q388">
@@ -19083,6 +21035,10 @@
       <c r="O389">
         <v>3</v>
       </c>
+      <c r="P389">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q389">
         <v>8</v>
       </c>
@@ -19125,6 +21081,10 @@
         <v>2</v>
       </c>
       <c r="O390">
+        <v>1</v>
+      </c>
+      <c r="P390">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q390">
@@ -19171,6 +21131,10 @@
       <c r="O391">
         <v>3</v>
       </c>
+      <c r="P391">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q391">
         <v>8</v>
       </c>
@@ -19213,6 +21177,10 @@
         <v>4</v>
       </c>
       <c r="O392">
+        <v>1</v>
+      </c>
+      <c r="P392">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q392">
@@ -19259,6 +21227,10 @@
       <c r="O393">
         <v>1</v>
       </c>
+      <c r="P393">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q393">
         <v>8</v>
       </c>
@@ -19303,6 +21275,10 @@
       <c r="O394">
         <v>5</v>
       </c>
+      <c r="P394">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="Q394">
         <v>8</v>
       </c>
@@ -19346,6 +21322,10 @@
       </c>
       <c r="O395">
         <v>4</v>
+      </c>
+      <c r="P395">
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="Q395">
         <v>8</v>
@@ -19391,6 +21371,10 @@
       <c r="O396">
         <v>5</v>
       </c>
+      <c r="P396">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="Q396">
         <v>8</v>
       </c>
@@ -19435,6 +21419,10 @@
       <c r="O397">
         <v>4</v>
       </c>
+      <c r="P397">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
       <c r="Q397">
         <v>8</v>
       </c>
@@ -19479,6 +21467,10 @@
       <c r="O398">
         <v>2</v>
       </c>
+      <c r="P398">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="Q398">
         <v>8</v>
       </c>
@@ -19521,6 +21513,10 @@
         <v>1</v>
       </c>
       <c r="O399">
+        <v>1</v>
+      </c>
+      <c r="P399">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q399">
@@ -19567,6 +21563,10 @@
       <c r="O400">
         <v>1</v>
       </c>
+      <c r="P400">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q400">
         <v>8</v>
       </c>
@@ -19611,6 +21611,10 @@
       <c r="O401">
         <v>0</v>
       </c>
+      <c r="P401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q401">
         <v>8</v>
       </c>
@@ -19654,6 +21658,10 @@
       </c>
       <c r="O402">
         <v>6</v>
+      </c>
+      <c r="P402">
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="Q402">
         <v>8</v>
@@ -19699,6 +21707,10 @@
       <c r="O403">
         <v>1</v>
       </c>
+      <c r="P403">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q403">
         <v>8</v>
       </c>
@@ -19743,6 +21755,10 @@
       <c r="O404">
         <v>0</v>
       </c>
+      <c r="P404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q404">
         <v>8</v>
       </c>
@@ -19786,6 +21802,10 @@
       </c>
       <c r="O405">
         <v>2</v>
+      </c>
+      <c r="P405">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q405">
         <v>8</v>
@@ -19831,6 +21851,10 @@
       <c r="O406">
         <v>0</v>
       </c>
+      <c r="P406">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q406">
         <v>8</v>
       </c>
@@ -19874,6 +21898,10 @@
       </c>
       <c r="O407">
         <v>6</v>
+      </c>
+      <c r="P407">
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="Q407">
         <v>8</v>
@@ -19919,6 +21947,10 @@
       <c r="O408">
         <v>1</v>
       </c>
+      <c r="P408">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q408">
         <v>8</v>
       </c>
@@ -19963,6 +21995,10 @@
       <c r="O409">
         <v>3</v>
       </c>
+      <c r="P409">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q409">
         <v>8</v>
       </c>
@@ -20007,6 +22043,10 @@
       <c r="O410">
         <v>9</v>
       </c>
+      <c r="P410">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
       <c r="Q410">
         <v>8</v>
       </c>
@@ -20051,6 +22091,10 @@
       <c r="O411">
         <v>2</v>
       </c>
+      <c r="P411">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="Q411">
         <v>8</v>
       </c>
@@ -20095,6 +22139,10 @@
       <c r="O412">
         <v>1</v>
       </c>
+      <c r="P412">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q412">
         <v>8</v>
       </c>
@@ -20139,6 +22187,10 @@
       <c r="O413">
         <v>3</v>
       </c>
+      <c r="P413">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q413">
         <v>8</v>
       </c>
@@ -20183,6 +22235,10 @@
       <c r="O414">
         <v>3</v>
       </c>
+      <c r="P414">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q414">
         <v>8</v>
       </c>
@@ -20227,6 +22283,10 @@
       <c r="O415">
         <v>1</v>
       </c>
+      <c r="P415">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q415">
         <v>8</v>
       </c>
@@ -20270,6 +22330,10 @@
       </c>
       <c r="O416">
         <v>2</v>
+      </c>
+      <c r="P416">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q416">
         <v>8</v>
@@ -20315,6 +22379,10 @@
       <c r="O417">
         <v>1</v>
       </c>
+      <c r="P417">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q417">
         <v>8</v>
       </c>
@@ -20359,6 +22427,10 @@
       <c r="O418">
         <v>0</v>
       </c>
+      <c r="P418">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q418">
         <v>8</v>
       </c>
@@ -20401,6 +22473,10 @@
         <v>3</v>
       </c>
       <c r="O419">
+        <v>1</v>
+      </c>
+      <c r="P419">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q419">
@@ -20447,6 +22523,10 @@
       <c r="O420">
         <v>0</v>
       </c>
+      <c r="P420">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q420">
         <v>8</v>
       </c>
@@ -20491,6 +22571,10 @@
       <c r="O421">
         <v>2</v>
       </c>
+      <c r="P421">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="Q421">
         <v>8</v>
       </c>
@@ -20534,6 +22618,10 @@
       </c>
       <c r="O422">
         <v>5</v>
+      </c>
+      <c r="P422">
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="Q422">
         <v>8</v>
@@ -20579,6 +22667,10 @@
       <c r="O423">
         <v>0</v>
       </c>
+      <c r="P423">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q423">
         <v>8</v>
       </c>
@@ -20623,6 +22715,10 @@
       <c r="O424">
         <v>1</v>
       </c>
+      <c r="P424">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q424">
         <v>8</v>
       </c>
@@ -20666,6 +22762,10 @@
       </c>
       <c r="O425">
         <v>2</v>
+      </c>
+      <c r="P425">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q425">
         <v>8</v>
@@ -20711,6 +22811,10 @@
       <c r="O426">
         <v>1</v>
       </c>
+      <c r="P426">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q426">
         <v>8</v>
       </c>
@@ -20753,6 +22857,10 @@
         <v>1</v>
       </c>
       <c r="O427">
+        <v>0</v>
+      </c>
+      <c r="P427">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q427">
@@ -20799,6 +22907,10 @@
       <c r="O428">
         <v>0</v>
       </c>
+      <c r="P428">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q428">
         <v>8</v>
       </c>
@@ -20843,6 +22955,10 @@
       <c r="O429">
         <v>7</v>
       </c>
+      <c r="P429">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
       <c r="Q429">
         <v>8</v>
       </c>
@@ -20887,6 +23003,10 @@
       <c r="O430">
         <v>3</v>
       </c>
+      <c r="P430">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q430">
         <v>8</v>
       </c>
@@ -20930,6 +23050,10 @@
       </c>
       <c r="O431">
         <v>3</v>
+      </c>
+      <c r="P431">
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="Q431">
         <v>8</v>
@@ -20975,6 +23099,10 @@
       <c r="O432">
         <v>0</v>
       </c>
+      <c r="P432">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q432">
         <v>8</v>
       </c>
@@ -21018,6 +23146,10 @@
       </c>
       <c r="O433">
         <v>2</v>
+      </c>
+      <c r="P433">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q433">
         <v>8</v>
@@ -21063,6 +23195,10 @@
       <c r="O434">
         <v>6</v>
       </c>
+      <c r="P434">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
       <c r="Q434">
         <v>8</v>
       </c>
@@ -21107,6 +23243,10 @@
       <c r="O435">
         <v>2</v>
       </c>
+      <c r="P435">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="Q435">
         <v>8</v>
       </c>
@@ -21150,6 +23290,10 @@
       </c>
       <c r="O436">
         <v>2</v>
+      </c>
+      <c r="P436">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q436">
         <v>8</v>
@@ -21195,6 +23339,10 @@
       <c r="O437">
         <v>0</v>
       </c>
+      <c r="P437">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q437">
         <v>8</v>
       </c>
@@ -21239,6 +23387,10 @@
       <c r="O438">
         <v>0</v>
       </c>
+      <c r="P438">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q438">
         <v>7</v>
       </c>
@@ -21282,6 +23434,10 @@
       </c>
       <c r="O439">
         <v>2</v>
+      </c>
+      <c r="P439">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q439">
         <v>7</v>
@@ -21327,6 +23483,10 @@
       <c r="O440">
         <v>0</v>
       </c>
+      <c r="P440">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q440">
         <v>7</v>
       </c>
@@ -21370,6 +23530,10 @@
       </c>
       <c r="O441">
         <v>2</v>
+      </c>
+      <c r="P441">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q441">
         <v>7</v>
@@ -21415,6 +23579,10 @@
       <c r="O442">
         <v>3</v>
       </c>
+      <c r="P442">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q442">
         <v>7</v>
       </c>
@@ -21458,6 +23626,10 @@
       </c>
       <c r="O443">
         <v>3</v>
+      </c>
+      <c r="P443">
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="Q443">
         <v>7</v>
@@ -21503,6 +23675,10 @@
       <c r="O444">
         <v>0</v>
       </c>
+      <c r="P444">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Q444">
         <v>7</v>
       </c>
@@ -21546,6 +23722,10 @@
       </c>
       <c r="O445">
         <v>2</v>
+      </c>
+      <c r="P445">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q445">
         <v>7</v>
@@ -21591,6 +23771,10 @@
       <c r="O446">
         <v>1</v>
       </c>
+      <c r="P446">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="Q446">
         <v>7</v>
       </c>
@@ -21633,6 +23817,10 @@
         <v>2</v>
       </c>
       <c r="O447">
+        <v>0</v>
+      </c>
+      <c r="P447">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q447">
@@ -21679,6 +23867,10 @@
       <c r="O448">
         <v>3</v>
       </c>
+      <c r="P448">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
       <c r="Q448">
         <v>7</v>
       </c>
@@ -21723,6 +23915,10 @@
       <c r="O449">
         <v>2</v>
       </c>
+      <c r="P449">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="Q449">
         <v>7</v>
       </c>
@@ -21766,6 +23962,10 @@
       </c>
       <c r="O450">
         <v>2</v>
+      </c>
+      <c r="P450">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="Q450">
         <v>7</v>
@@ -21811,6 +24011,10 @@
       <c r="O451">
         <v>0</v>
       </c>
+      <c r="P451">
+        <f t="shared" ref="P451:P501" si="7">O451*O451</f>
+        <v>0</v>
+      </c>
       <c r="Q451">
         <v>7</v>
       </c>
@@ -21855,6 +24059,10 @@
       <c r="O452">
         <v>0</v>
       </c>
+      <c r="P452">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q452">
         <v>7</v>
       </c>
@@ -21897,6 +24105,10 @@
         <v>1</v>
       </c>
       <c r="O453">
+        <v>1</v>
+      </c>
+      <c r="P453">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q453">
@@ -21943,6 +24155,10 @@
       <c r="O454">
         <v>0</v>
       </c>
+      <c r="P454">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q454">
         <v>7</v>
       </c>
@@ -21985,6 +24201,10 @@
         <v>2</v>
       </c>
       <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q455">
@@ -22031,6 +24251,10 @@
       <c r="O456">
         <v>2</v>
       </c>
+      <c r="P456">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q456">
         <v>7</v>
       </c>
@@ -22075,6 +24299,10 @@
       <c r="O457">
         <v>2</v>
       </c>
+      <c r="P457">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q457">
         <v>7</v>
       </c>
@@ -22119,6 +24347,10 @@
       <c r="O458">
         <v>2</v>
       </c>
+      <c r="P458">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q458">
         <v>7</v>
       </c>
@@ -22163,6 +24395,10 @@
       <c r="O459">
         <v>13</v>
       </c>
+      <c r="P459">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
       <c r="Q459">
         <v>7</v>
       </c>
@@ -22205,6 +24441,10 @@
         <v>1</v>
       </c>
       <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q460">
@@ -22251,6 +24491,10 @@
       <c r="O461">
         <v>0</v>
       </c>
+      <c r="P461">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q461">
         <v>7</v>
       </c>
@@ -22293,6 +24537,10 @@
         <v>3</v>
       </c>
       <c r="O462">
+        <v>1</v>
+      </c>
+      <c r="P462">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q462">
@@ -22339,6 +24587,10 @@
       <c r="O463">
         <v>5</v>
       </c>
+      <c r="P463">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
       <c r="Q463">
         <v>7</v>
       </c>
@@ -22383,6 +24635,10 @@
       <c r="O464">
         <v>1</v>
       </c>
+      <c r="P464">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q464">
         <v>7</v>
       </c>
@@ -22425,6 +24681,10 @@
         <v>4</v>
       </c>
       <c r="O465">
+        <v>1</v>
+      </c>
+      <c r="P465">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q465">
@@ -22471,6 +24731,10 @@
       <c r="O466">
         <v>1</v>
       </c>
+      <c r="P466">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q466">
         <v>7</v>
       </c>
@@ -22515,6 +24779,10 @@
       <c r="O467">
         <v>6</v>
       </c>
+      <c r="P467">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
       <c r="Q467">
         <v>7</v>
       </c>
@@ -22558,6 +24826,10 @@
       </c>
       <c r="O468">
         <v>2</v>
+      </c>
+      <c r="P468">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q468">
         <v>7</v>
@@ -22603,6 +24875,10 @@
       <c r="O469">
         <v>1</v>
       </c>
+      <c r="P469">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q469">
         <v>7</v>
       </c>
@@ -22647,6 +24923,10 @@
       <c r="O470">
         <v>11</v>
       </c>
+      <c r="P470">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
       <c r="Q470">
         <v>7</v>
       </c>
@@ -22691,6 +24971,10 @@
       <c r="O471">
         <v>0</v>
       </c>
+      <c r="P471">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q471">
         <v>7</v>
       </c>
@@ -22733,6 +25017,10 @@
         <v>0</v>
       </c>
       <c r="O472">
+        <v>1</v>
+      </c>
+      <c r="P472">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q472">
@@ -22779,6 +25067,10 @@
       <c r="O473">
         <v>3</v>
       </c>
+      <c r="P473">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="Q473">
         <v>7</v>
       </c>
@@ -22823,6 +25115,10 @@
       <c r="O474">
         <v>0</v>
       </c>
+      <c r="P474">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q474">
         <v>7</v>
       </c>
@@ -22866,6 +25162,10 @@
       </c>
       <c r="O475">
         <v>3</v>
+      </c>
+      <c r="P475">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="Q475">
         <v>7</v>
@@ -22911,6 +25211,10 @@
       <c r="O476">
         <v>1</v>
       </c>
+      <c r="P476">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q476">
         <v>7</v>
       </c>
@@ -22955,6 +25259,10 @@
       <c r="O477">
         <v>1</v>
       </c>
+      <c r="P477">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q477">
         <v>7</v>
       </c>
@@ -22999,6 +25307,10 @@
       <c r="O478">
         <v>2</v>
       </c>
+      <c r="P478">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q478">
         <v>7</v>
       </c>
@@ -23043,6 +25355,10 @@
       <c r="O479">
         <v>2</v>
       </c>
+      <c r="P479">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q479">
         <v>7</v>
       </c>
@@ -23087,6 +25403,10 @@
       <c r="O480">
         <v>1</v>
       </c>
+      <c r="P480">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q480">
         <v>7</v>
       </c>
@@ -23131,6 +25451,10 @@
       <c r="O481">
         <v>1</v>
       </c>
+      <c r="P481">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q481">
         <v>7</v>
       </c>
@@ -23173,6 +25497,10 @@
         <v>2</v>
       </c>
       <c r="O482">
+        <v>0</v>
+      </c>
+      <c r="P482">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q482">
@@ -23219,6 +25547,10 @@
       <c r="O483">
         <v>5</v>
       </c>
+      <c r="P483">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
       <c r="Q483">
         <v>7</v>
       </c>
@@ -23263,6 +25595,10 @@
       <c r="O484">
         <v>4</v>
       </c>
+      <c r="P484">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="Q484">
         <v>7</v>
       </c>
@@ -23307,6 +25643,10 @@
       <c r="O485">
         <v>0</v>
       </c>
+      <c r="P485">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q485">
         <v>7</v>
       </c>
@@ -23351,6 +25691,10 @@
       <c r="O486">
         <v>1</v>
       </c>
+      <c r="P486">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q486">
         <v>7</v>
       </c>
@@ -23394,6 +25738,10 @@
       </c>
       <c r="O487">
         <v>5</v>
+      </c>
+      <c r="P487">
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="Q487">
         <v>7</v>
@@ -23439,6 +25787,10 @@
       <c r="O488">
         <v>0</v>
       </c>
+      <c r="P488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q488">
         <v>7</v>
       </c>
@@ -23481,6 +25833,10 @@
         <v>3</v>
       </c>
       <c r="O489">
+        <v>0</v>
+      </c>
+      <c r="P489">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q489">
@@ -23527,6 +25883,10 @@
       <c r="O490">
         <v>1</v>
       </c>
+      <c r="P490">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q490">
         <v>7</v>
       </c>
@@ -23571,6 +25931,10 @@
       <c r="O491">
         <v>2</v>
       </c>
+      <c r="P491">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q491">
         <v>7</v>
       </c>
@@ -23614,6 +25978,10 @@
       </c>
       <c r="O492">
         <v>6</v>
+      </c>
+      <c r="P492">
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="Q492">
         <v>7</v>
@@ -23659,6 +26027,10 @@
       <c r="O493">
         <v>1</v>
       </c>
+      <c r="P493">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="Q493">
         <v>7</v>
       </c>
@@ -23701,6 +26073,10 @@
         <v>2</v>
       </c>
       <c r="O494">
+        <v>1</v>
+      </c>
+      <c r="P494">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q494">
@@ -23747,6 +26123,10 @@
       <c r="O495">
         <v>0</v>
       </c>
+      <c r="P495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q495">
         <v>7</v>
       </c>
@@ -23791,6 +26171,10 @@
       <c r="O496">
         <v>2</v>
       </c>
+      <c r="P496">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="Q496">
         <v>7</v>
       </c>
@@ -23835,6 +26219,10 @@
       <c r="O497">
         <v>0</v>
       </c>
+      <c r="P497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q497">
         <v>7</v>
       </c>
@@ -23879,6 +26267,10 @@
       <c r="O498">
         <v>0</v>
       </c>
+      <c r="P498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q498">
         <v>7</v>
       </c>
@@ -23921,6 +26313,10 @@
         <v>2</v>
       </c>
       <c r="O499">
+        <v>0</v>
+      </c>
+      <c r="P499">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q499">
@@ -23967,6 +26363,10 @@
       <c r="O500">
         <v>3</v>
       </c>
+      <c r="P500">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="Q500">
         <v>7</v>
       </c>
@@ -24010,6 +26410,10 @@
       </c>
       <c r="O501">
         <v>2</v>
+      </c>
+      <c r="P501">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q501">
         <v>7</v>
@@ -24020,5 +26424,6 @@
     <sortCondition descending="1" ref="F2:F501"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>